--- a/Genentic_Analysis/Result.xlsx
+++ b/Genentic_Analysis/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test</t>
   </si>
@@ -24,18 +24,15 @@
   <si>
     <t>Method 2</t>
   </si>
-  <si>
-    <t>Method 3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -55,46 +52,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,14 +68,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +107,36 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -138,13 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -153,9 +159,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +396,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,17 +447,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,24 +488,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -475,42 +496,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,127 +520,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,10 +758,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>723</c:v>
                 </c:pt>
@@ -775,57 +772,60 @@
                   <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2811</c:v>
+                  <c:v>3086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4232</c:v>
+                  <c:v>4771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3857</c:v>
+                  <c:v>4480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6185</c:v>
+                  <c:v>7316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6616</c:v>
+                  <c:v>8206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4469</c:v>
+                  <c:v>6022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5724</c:v>
+                  <c:v>7096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17137</c:v>
+                  <c:v>20921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29005</c:v>
+                  <c:v>33369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46663</c:v>
+                  <c:v>50751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55822</c:v>
+                  <c:v>61359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75578</c:v>
+                  <c:v>77012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83056</c:v>
+                  <c:v>92976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99780</c:v>
+                  <c:v>104262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114221</c:v>
+                  <c:v>121673</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121987</c:v>
+                  <c:v>131679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140843</c:v>
+                  <c:v>146765</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -861,10 +861,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Sheet1!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>723</c:v>
                 </c:pt>
@@ -872,160 +872,63 @@
                   <c:v>2414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2120</c:v>
+                  <c:v>2181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2980</c:v>
+                  <c:v>3083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4187</c:v>
+                  <c:v>4705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3903</c:v>
+                  <c:v>4619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6417</c:v>
+                  <c:v>7143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6777</c:v>
+                  <c:v>8009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4739</c:v>
+                  <c:v>6036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5328</c:v>
+                  <c:v>6522</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16710</c:v>
+                  <c:v>21047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30481</c:v>
+                  <c:v>35961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46605</c:v>
+                  <c:v>52505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60671</c:v>
+                  <c:v>64305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72842</c:v>
+                  <c:v>78211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82227</c:v>
+                  <c:v>89140</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98526</c:v>
+                  <c:v>104570</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112893</c:v>
+                  <c:v>124046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123912</c:v>
+                  <c:v>133593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141457</c:v>
+                  <c:v>148337</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Method 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>723</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2414</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2071</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3055</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3920</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6670</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6912</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4853</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5581</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16922</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29208</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>73273</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>84057</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>96376</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>111687</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>126825</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>140310</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2060,10 +1963,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2082,11 +1985,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2096,11 +1997,8 @@
       <c r="C2">
         <v>723</v>
       </c>
-      <c r="D2">
-        <v>723</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2110,11 +2008,8 @@
       <c r="C3">
         <v>2414</v>
       </c>
-      <c r="D3">
-        <v>2414</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2122,251 +2017,197 @@
         <v>2230</v>
       </c>
       <c r="C4">
-        <v>2120</v>
-      </c>
-      <c r="D4">
-        <v>2071</v>
+        <v>2181</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2811</v>
+        <v>3086</v>
       </c>
       <c r="C5">
-        <v>2980</v>
-      </c>
-      <c r="D5">
-        <v>3055</v>
+        <v>3083</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4232</v>
+        <v>4771</v>
       </c>
       <c r="C6">
-        <v>4187</v>
-      </c>
-      <c r="D6">
-        <v>4200</v>
+        <v>4705</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3857</v>
+        <v>4480</v>
       </c>
       <c r="C7">
-        <v>3903</v>
-      </c>
-      <c r="D7">
-        <v>3920</v>
+        <v>4619</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6185</v>
+        <v>7316</v>
       </c>
       <c r="C8">
-        <v>6417</v>
-      </c>
-      <c r="D8">
-        <v>6670</v>
+        <v>7143</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6616</v>
+        <v>8206</v>
       </c>
       <c r="C9">
-        <v>6777</v>
-      </c>
-      <c r="D9">
-        <v>6912</v>
+        <v>8009</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4469</v>
+        <v>6022</v>
       </c>
       <c r="C10">
-        <v>4739</v>
-      </c>
-      <c r="D10">
-        <v>4853</v>
+        <v>6036</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5724</v>
+        <v>7096</v>
       </c>
       <c r="C11">
-        <v>5328</v>
-      </c>
-      <c r="D11">
-        <v>5581</v>
+        <v>6522</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17137</v>
+        <v>20921</v>
       </c>
       <c r="C12">
-        <v>16710</v>
-      </c>
-      <c r="D12">
-        <v>16922</v>
+        <v>21047</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29005</v>
+        <v>33369</v>
       </c>
       <c r="C13">
-        <v>30481</v>
-      </c>
-      <c r="D13">
-        <v>29208</v>
+        <v>35961</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46663</v>
+        <v>50751</v>
       </c>
       <c r="C14">
-        <v>46605</v>
-      </c>
-      <c r="D14">
-        <v>46280</v>
+        <v>52505</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55822</v>
+        <v>61359</v>
       </c>
       <c r="C15">
-        <v>60671</v>
-      </c>
-      <c r="D15">
-        <v>56891</v>
+        <v>64305</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75578</v>
+        <v>77012</v>
       </c>
       <c r="C16">
-        <v>72842</v>
-      </c>
-      <c r="D16">
-        <v>73273</v>
+        <v>78211</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83056</v>
+        <v>92976</v>
       </c>
       <c r="C17">
-        <v>82227</v>
-      </c>
-      <c r="D17">
-        <v>84057</v>
+        <v>89140</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99780</v>
+        <v>104262</v>
       </c>
       <c r="C18">
-        <v>98526</v>
-      </c>
-      <c r="D18">
-        <v>96376</v>
+        <v>104570</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>114221</v>
+        <v>121673</v>
       </c>
       <c r="C19">
-        <v>112893</v>
-      </c>
-      <c r="D19">
-        <v>111687</v>
+        <v>124046</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>121987</v>
+        <v>131679</v>
       </c>
       <c r="C20">
-        <v>123912</v>
-      </c>
-      <c r="D20">
-        <v>126825</v>
+        <v>133593</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>140843</v>
+        <v>146765</v>
       </c>
       <c r="C21">
-        <v>141457</v>
-      </c>
-      <c r="D21">
-        <v>140310</v>
+        <v>148337</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2376,7 +2217,15 @@
       <c r="C22">
         <v>-1</v>
       </c>
-      <c r="D22">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
     </row>

--- a/Genentic_Analysis/Result.xlsx
+++ b/Genentic_Analysis/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375"/>
+    <workbookView windowWidth="24225" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Test</t>
   </si>
@@ -24,15 +24,30 @@
   <si>
     <t>Method 2</t>
   </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Best overall method 1</t>
+  </si>
+  <si>
+    <t>Best at Gen method 1</t>
+  </si>
+  <si>
+    <t>Best overall method 2</t>
+  </si>
+  <si>
+    <t>Best at Gen method 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -53,14 +68,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,7 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,23 +136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,14 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -188,9 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +220,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,25 +268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,13 +292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,43 +340,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,43 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +411,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,30 +478,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -496,18 +502,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,136 +532,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,12 +774,81 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>723</c:v>
                 </c:pt>
@@ -821,12 +908,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>146765</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,12 +940,81 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>723</c:v>
                 </c:pt>
@@ -872,64 +1022,58 @@
                   <c:v>2414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2181</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3083</c:v>
+                  <c:v>2952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4705</c:v>
+                  <c:v>4501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4619</c:v>
+                  <c:v>4656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7143</c:v>
+                  <c:v>7396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8009</c:v>
+                  <c:v>8116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6036</c:v>
+                  <c:v>5833</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6522</c:v>
+                  <c:v>6605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21047</c:v>
+                  <c:v>19767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35961</c:v>
+                  <c:v>35170</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52505</c:v>
+                  <c:v>50913</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64305</c:v>
+                  <c:v>62964</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78211</c:v>
+                  <c:v>80901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89140</c:v>
+                  <c:v>88470</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104570</c:v>
+                  <c:v>105415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124046</c:v>
+                  <c:v>125935</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133593</c:v>
+                  <c:v>129753</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>148337</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1</c:v>
+                  <c:v>148820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,6 +1139,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1127,7 +1272,959 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best overall method 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$3:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>137060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>149531</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best at Gen method 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>137060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144646</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>146711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142608</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140960</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144807</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>143092</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best overall method 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>135237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148907</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best at Gen method 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>135237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>133336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141557</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143773</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139206</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>144596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="22128830"/>
+        <c:axId val="447319842"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="22128830"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447319842"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447319842"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22128830"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1670,6 +2767,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1691,12 +3304,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4060825" y="2177415"/>
+        <a:off x="4079875" y="2177415"/>
         <a:ext cx="6323965" cy="2543810"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10636250" y="4311650"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1963,19 +3606,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28571428571429" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="2" max="3" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="20" max="20" width="11.8571428571429" customWidth="1"/>
+    <col min="21" max="21" width="22.1428571428571" customWidth="1"/>
+    <col min="22" max="22" width="21.7142857142857" customWidth="1"/>
+    <col min="23" max="23" width="22.1428571428571" customWidth="1"/>
+    <col min="24" max="24" width="21.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1986,8 +3635,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1997,8 +3657,20 @@
       <c r="C2">
         <v>723</v>
       </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2008,8 +3680,23 @@
       <c r="C3">
         <v>2414</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>137060</v>
+      </c>
+      <c r="V3">
+        <v>137060</v>
+      </c>
+      <c r="W3">
+        <v>135237</v>
+      </c>
+      <c r="X3">
+        <v>135237</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2017,10 +3704,25 @@
         <v>2230</v>
       </c>
       <c r="C4">
-        <v>2181</v>
+        <v>2230</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>143807</v>
+      </c>
+      <c r="V4">
+        <v>141035</v>
+      </c>
+      <c r="W4">
+        <v>135237</v>
+      </c>
+      <c r="X4">
+        <v>135237</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2028,10 +3730,25 @@
         <v>3086</v>
       </c>
       <c r="C5">
-        <v>3083</v>
+        <v>2952</v>
+      </c>
+      <c r="T5">
+        <v>200</v>
+      </c>
+      <c r="U5">
+        <v>143807</v>
+      </c>
+      <c r="V5">
+        <v>140326</v>
+      </c>
+      <c r="W5">
+        <v>142372</v>
+      </c>
+      <c r="X5">
+        <v>142758</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2039,10 +3756,25 @@
         <v>4771</v>
       </c>
       <c r="C6">
-        <v>4705</v>
+        <v>4501</v>
+      </c>
+      <c r="T6">
+        <v>300</v>
+      </c>
+      <c r="U6">
+        <v>144005</v>
+      </c>
+      <c r="V6">
+        <v>142226</v>
+      </c>
+      <c r="W6">
+        <v>147715</v>
+      </c>
+      <c r="X6">
+        <v>138242</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2050,10 +3782,25 @@
         <v>4480</v>
       </c>
       <c r="C7">
-        <v>4619</v>
+        <v>4656</v>
+      </c>
+      <c r="T7">
+        <v>400</v>
+      </c>
+      <c r="U7">
+        <v>145970</v>
+      </c>
+      <c r="V7">
+        <v>142999</v>
+      </c>
+      <c r="W7">
+        <v>147715</v>
+      </c>
+      <c r="X7">
+        <v>139712</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2061,10 +3808,25 @@
         <v>7316</v>
       </c>
       <c r="C8">
-        <v>7143</v>
+        <v>7396</v>
+      </c>
+      <c r="T8">
+        <v>500</v>
+      </c>
+      <c r="U8">
+        <v>147962</v>
+      </c>
+      <c r="V8">
+        <v>146812</v>
+      </c>
+      <c r="W8">
+        <v>147715</v>
+      </c>
+      <c r="X8">
+        <v>136014</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2072,10 +3834,25 @@
         <v>8206</v>
       </c>
       <c r="C9">
-        <v>8009</v>
+        <v>8116</v>
+      </c>
+      <c r="T9">
+        <v>600</v>
+      </c>
+      <c r="U9">
+        <v>149012</v>
+      </c>
+      <c r="V9">
+        <v>144003</v>
+      </c>
+      <c r="W9">
+        <v>147715</v>
+      </c>
+      <c r="X9">
+        <v>135613</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2083,10 +3860,25 @@
         <v>6022</v>
       </c>
       <c r="C10">
-        <v>6036</v>
+        <v>5833</v>
+      </c>
+      <c r="T10">
+        <v>700</v>
+      </c>
+      <c r="U10">
+        <v>149012</v>
+      </c>
+      <c r="V10">
+        <v>141406</v>
+      </c>
+      <c r="W10">
+        <v>147715</v>
+      </c>
+      <c r="X10">
+        <v>141726</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2094,10 +3886,25 @@
         <v>7096</v>
       </c>
       <c r="C11">
-        <v>6522</v>
+        <v>6605</v>
+      </c>
+      <c r="T11">
+        <v>800</v>
+      </c>
+      <c r="U11">
+        <v>149012</v>
+      </c>
+      <c r="V11">
+        <v>140409</v>
+      </c>
+      <c r="W11">
+        <v>147715</v>
+      </c>
+      <c r="X11">
+        <v>138815</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2105,10 +3912,25 @@
         <v>20921</v>
       </c>
       <c r="C12">
-        <v>21047</v>
+        <v>19767</v>
+      </c>
+      <c r="T12">
+        <v>900</v>
+      </c>
+      <c r="U12">
+        <v>149012</v>
+      </c>
+      <c r="V12">
+        <v>137948</v>
+      </c>
+      <c r="W12">
+        <v>147715</v>
+      </c>
+      <c r="X12">
+        <v>136995</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2116,10 +3938,25 @@
         <v>33369</v>
       </c>
       <c r="C13">
-        <v>35961</v>
+        <v>35170</v>
+      </c>
+      <c r="T13">
+        <v>1000</v>
+      </c>
+      <c r="U13">
+        <v>149012</v>
+      </c>
+      <c r="V13">
+        <v>139855</v>
+      </c>
+      <c r="W13">
+        <v>147715</v>
+      </c>
+      <c r="X13">
+        <v>134957</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2127,10 +3964,25 @@
         <v>50751</v>
       </c>
       <c r="C14">
-        <v>52505</v>
+        <v>50913</v>
+      </c>
+      <c r="T14">
+        <v>1100</v>
+      </c>
+      <c r="U14">
+        <v>149012</v>
+      </c>
+      <c r="V14">
+        <v>144646</v>
+      </c>
+      <c r="W14">
+        <v>147715</v>
+      </c>
+      <c r="X14">
+        <v>133336</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2138,10 +3990,25 @@
         <v>61359</v>
       </c>
       <c r="C15">
-        <v>64305</v>
+        <v>62964</v>
+      </c>
+      <c r="T15">
+        <v>1200</v>
+      </c>
+      <c r="U15">
+        <v>149012</v>
+      </c>
+      <c r="V15">
+        <v>148096</v>
+      </c>
+      <c r="W15">
+        <v>147715</v>
+      </c>
+      <c r="X15">
+        <v>133805</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2149,10 +4016,25 @@
         <v>77012</v>
       </c>
       <c r="C16">
-        <v>78211</v>
+        <v>80901</v>
+      </c>
+      <c r="T16">
+        <v>1300</v>
+      </c>
+      <c r="U16">
+        <v>149531</v>
+      </c>
+      <c r="V16">
+        <v>146711</v>
+      </c>
+      <c r="W16">
+        <v>147715</v>
+      </c>
+      <c r="X16">
+        <v>135253</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2160,10 +4042,25 @@
         <v>92976</v>
       </c>
       <c r="C17">
-        <v>89140</v>
+        <v>88470</v>
+      </c>
+      <c r="T17">
+        <v>1400</v>
+      </c>
+      <c r="U17">
+        <v>149531</v>
+      </c>
+      <c r="V17">
+        <v>145711</v>
+      </c>
+      <c r="W17">
+        <v>147715</v>
+      </c>
+      <c r="X17">
+        <v>134909</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2171,10 +4068,25 @@
         <v>104262</v>
       </c>
       <c r="C18">
-        <v>104570</v>
+        <v>105415</v>
+      </c>
+      <c r="T18">
+        <v>1500</v>
+      </c>
+      <c r="U18">
+        <v>149531</v>
+      </c>
+      <c r="V18">
+        <v>142608</v>
+      </c>
+      <c r="W18">
+        <v>147715</v>
+      </c>
+      <c r="X18">
+        <v>137923</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2182,10 +4094,25 @@
         <v>121673</v>
       </c>
       <c r="C19">
-        <v>124046</v>
+        <v>125935</v>
+      </c>
+      <c r="T19">
+        <v>1600</v>
+      </c>
+      <c r="U19">
+        <v>149531</v>
+      </c>
+      <c r="V19">
+        <v>140298</v>
+      </c>
+      <c r="W19">
+        <v>147715</v>
+      </c>
+      <c r="X19">
+        <v>141557</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2193,10 +4120,25 @@
         <v>131679</v>
       </c>
       <c r="C20">
-        <v>133593</v>
+        <v>129753</v>
+      </c>
+      <c r="T20">
+        <v>1700</v>
+      </c>
+      <c r="U20">
+        <v>149531</v>
+      </c>
+      <c r="V20">
+        <v>140960</v>
+      </c>
+      <c r="W20">
+        <v>147715</v>
+      </c>
+      <c r="X20">
+        <v>143773</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2204,10 +4146,25 @@
         <v>146765</v>
       </c>
       <c r="C21">
-        <v>148337</v>
+        <v>148820</v>
+      </c>
+      <c r="T21">
+        <v>1800</v>
+      </c>
+      <c r="U21">
+        <v>149531</v>
+      </c>
+      <c r="V21">
+        <v>144807</v>
+      </c>
+      <c r="W21">
+        <v>148907</v>
+      </c>
+      <c r="X21">
+        <v>144954</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2217,8 +4174,23 @@
       <c r="C22">
         <v>-1</v>
       </c>
+      <c r="T22">
+        <v>1900</v>
+      </c>
+      <c r="U22">
+        <v>149531</v>
+      </c>
+      <c r="V22">
+        <v>143092</v>
+      </c>
+      <c r="W22">
+        <v>148907</v>
+      </c>
+      <c r="X22">
+        <v>139206</v>
+      </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2228,8 +4200,27 @@
       <c r="C23">
         <v>-1</v>
       </c>
+      <c r="T23">
+        <v>2000</v>
+      </c>
+      <c r="U23">
+        <v>149531</v>
+      </c>
+      <c r="V23">
+        <v>145011</v>
+      </c>
+      <c r="W23">
+        <v>148907</v>
+      </c>
+      <c r="X23">
+        <v>144596</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
